--- a/data/raw/X公司样例_零售业/X公司样例_零售业_标准表数据.xlsx
+++ b/data/raw/X公司样例_零售业/X公司样例_零售业_标准表数据.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxin/Dev/AA/data/raw/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B649A17-7F92-CC4C-9B3E-68B87546ECAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="7160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="核心指标" sheetId="6" r:id="rId1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>数据日期</t>
   </si>
@@ -90,18 +84,21 @@
     <t>厦门分店</t>
   </si>
   <si>
-    <t>XXXX计划值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>营收计划值</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,58 +107,374 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="微软雅黑 Light"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑 Light"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑 Light"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -171,222 +484,388 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="货币 6 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="货币 6 2" xfId="51"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -397,7 +876,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -425,40 +904,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -708,1019 +1301,1086 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E3F929-2ED8-F742-85DC-37A170540C9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="16.6634615384615" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.6442307692308" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19" style="6" customWidth="1"/>
+    <col min="4" max="6" width="16.3365384615385" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21.3365384615385" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.3365384615385" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.3365384615385" style="6" customWidth="1"/>
+    <col min="11" max="11" width="16.3365384615385" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="10.8365384615385" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>45291</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>850</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>12500</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>680</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>8200</v>
       </c>
-      <c r="G2" s="1">
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="G2" s="6">
+        <v>0.018</v>
+      </c>
+      <c r="H2" s="6">
         <v>0.65</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="6">
         <v>7</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="6">
         <v>320</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="6">
         <v>595</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>45291</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>420</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <v>7800</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="6">
         <v>538</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>5100</v>
       </c>
-      <c r="G3" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="G3" s="6">
+        <v>0.025</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.58</v>
+      </c>
+      <c r="I3" s="6">
         <v>5</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="6">
         <v>180</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="6">
         <v>310</v>
       </c>
-      <c r="L3" s="1">
-        <v>0.26200000000000001</v>
+      <c r="L3" s="6">
+        <v>0.262</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>45291</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>380</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <v>6200</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>613</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>4800</v>
       </c>
-      <c r="G4" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G4" s="6">
+        <v>0.031</v>
+      </c>
+      <c r="H4" s="6">
         <v>0.42</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="6">
         <v>3</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="6">
         <v>95</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="6">
         <v>281</v>
       </c>
-      <c r="L4" s="1">
-        <v>0.26100000000000001</v>
+      <c r="L4" s="6">
+        <v>0.261</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>45291</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>720</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>11200</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>643</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>7500</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <v>0.02</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6">
         <v>0.7</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="6">
         <v>10</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="6">
         <v>280</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="6">
         <v>511</v>
       </c>
-      <c r="L5" s="1">
-        <v>0.28999999999999998</v>
+      <c r="L5" s="6">
+        <v>0.29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>45291</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>680</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <v>10500</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>648</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>6800</v>
       </c>
-      <c r="G6" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G6" s="6">
+        <v>0.015</v>
+      </c>
+      <c r="H6" s="6">
         <v>0.75</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="6">
         <v>8</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="6">
         <v>250</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="6">
         <v>482</v>
       </c>
-      <c r="L6" s="1">
-        <v>0.29100000000000004</v>
+      <c r="L6" s="6">
+        <v>0.291</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <v>45291</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>310</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <v>5600</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <v>554</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <v>3900</v>
       </c>
-      <c r="G7" s="1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="6">
+        <v>0.042</v>
+      </c>
+      <c r="H7" s="6">
         <v>0.38</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="6">
         <v>4</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="6">
         <v>110</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="6">
         <v>229</v>
       </c>
-      <c r="L7" s="1">
-        <v>0.26100000000000001</v>
+      <c r="L7" s="6">
+        <v>0.261</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>45596</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>980</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>15600</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <v>628</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>7200</v>
       </c>
-      <c r="G8" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="G8" s="6">
+        <v>0.015</v>
+      </c>
+      <c r="H8" s="6">
         <v>0.68</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="6">
         <v>12</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="6">
         <v>380</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="6">
         <v>686</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2">
+      <c r="A9" s="7">
         <v>45596</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>500</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <v>9100</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <v>549</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <v>4700</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="6">
         <v>0.02</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="6">
         <v>0.63</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="6">
         <v>8</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="6">
         <v>210</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="6">
         <v>357</v>
       </c>
-      <c r="L9" s="1">
-        <v>0.28600000000000003</v>
+      <c r="L9" s="6">
+        <v>0.286</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <v>45596</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>430</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <v>7800</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
         <v>551</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <v>4200</v>
       </c>
-      <c r="G10" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="G10" s="6">
+        <v>0.025</v>
+      </c>
+      <c r="H10" s="6">
         <v>0.48</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="6">
         <v>5</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="6">
         <v>130</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="6">
         <v>306</v>
       </c>
-      <c r="L10" s="1">
-        <v>0.28800000000000003</v>
+      <c r="L10" s="6">
+        <v>0.288</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2">
+      <c r="A11" s="7">
         <v>45596</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>840</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>13500</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <v>622</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <v>6800</v>
       </c>
-      <c r="G11" s="1">
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="G11" s="6">
+        <v>0.013</v>
+      </c>
+      <c r="H11" s="6">
         <v>0.75</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="6">
         <v>14</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="6">
         <v>340</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="6">
         <v>592</v>
       </c>
-      <c r="L11" s="1">
-        <v>0.29499999999999998</v>
+      <c r="L11" s="6">
+        <v>0.295</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2">
+      <c r="A12" s="7">
         <v>45596</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <v>790</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="6">
         <v>12800</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <v>617</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <v>6200</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="6">
         <v>0.01</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="6">
         <v>0.8</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="6">
         <v>12</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="6">
         <v>310</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="6">
         <v>560</v>
       </c>
-      <c r="L12" s="1">
-        <v>0.29100000000000004</v>
+      <c r="L12" s="6">
+        <v>0.291</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="2">
+      <c r="A13" s="7">
         <v>45596</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <v>370</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="6">
         <v>6800</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
         <v>544</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <v>3400</v>
       </c>
-      <c r="G13" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="G13" s="6">
+        <v>0.032</v>
+      </c>
+      <c r="H13" s="6">
         <v>0.42</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="6">
         <v>7</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="6">
         <v>150</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="6">
         <v>266</v>
       </c>
-      <c r="L13" s="1">
-        <v>0.28100000000000003</v>
+      <c r="L13" s="6">
+        <v>0.281</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="2">
+      <c r="A14" s="7">
         <v>45626</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <v>1050</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="6">
         <v>16800</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <v>625</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6">
         <v>6500</v>
       </c>
-      <c r="G14" s="1">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="G14" s="6">
+        <v>0.012</v>
+      </c>
+      <c r="H14" s="6">
         <v>0.7</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="6">
         <v>14</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="6">
         <v>420</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="6">
         <v>735</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="2">
+      <c r="A15" s="7">
         <v>45626</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <v>540</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="6">
         <v>9800</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
         <v>551</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6">
         <v>4300</v>
       </c>
-      <c r="G15" s="1">
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="G15" s="6">
+        <v>0.018</v>
+      </c>
+      <c r="H15" s="6">
         <v>0.65</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="6">
         <v>10</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="6">
         <v>230</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="6">
         <v>383</v>
       </c>
-      <c r="L15" s="1">
-        <v>0.29100000000000004</v>
+      <c r="L15" s="6">
+        <v>0.291</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="2">
+      <c r="A16" s="7">
         <v>45626</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6">
         <v>470</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="6">
         <v>8500</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
         <v>553</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <v>3900</v>
       </c>
-      <c r="G16" s="1">
-        <v>2.2000000000000002E-2</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="G16" s="6">
+        <v>0.022</v>
+      </c>
+      <c r="H16" s="6">
         <v>0.53</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="6">
         <v>7</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="6">
         <v>150</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="6">
         <v>329</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="2">
+      <c r="A17" s="7">
         <v>45626</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="6">
         <v>920</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="6">
         <v>14800</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="6">
         <v>622</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="6">
         <v>6100</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="6">
         <v>0.01</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="6">
         <v>0.78</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="6">
         <v>16</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="6">
         <v>370</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="6">
         <v>644</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <v>45626</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6">
         <v>850</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="6">
         <v>14200</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="6">
         <v>599</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="6">
         <v>5800</v>
       </c>
-      <c r="G18" s="1">
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="G18" s="6">
+        <v>0.007</v>
+      </c>
+      <c r="H18" s="6">
         <v>0.83</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="6">
         <v>14</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="6">
         <v>340</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="6">
         <v>595</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="2">
+      <c r="A19" s="7">
         <v>45626</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="6">
         <v>400</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="6">
         <v>7300</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="6">
         <v>548</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="6">
         <v>3000</v>
       </c>
-      <c r="G19" s="1">
-        <v>2.7999999999999997E-2</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="G19" s="6">
+        <v>0.028</v>
+      </c>
+      <c r="H19" s="6">
         <v>0.47</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="6">
         <v>9</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="6">
         <v>180</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="6">
         <v>284</v>
       </c>
-      <c r="L19" s="1">
-        <v>0.28999999999999998</v>
+      <c r="L19" s="6">
+        <v>0.29</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <v>45657</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6">
         <v>1120</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="6">
         <v>18000</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="6">
         <v>622</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="6">
         <v>6500</v>
       </c>
-      <c r="G20" s="1">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="G20" s="6">
+        <v>0.012</v>
+      </c>
+      <c r="H20" s="6">
         <v>0.72</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="6">
         <v>15</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="6">
         <v>450</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="6">
         <v>784</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="2">
+      <c r="A21" s="7">
         <v>45657</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="6">
         <v>580</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="6">
         <v>10200</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="6">
         <v>569</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="6">
         <v>4200</v>
       </c>
-      <c r="G21" s="1">
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="G21" s="6">
+        <v>0.018</v>
+      </c>
+      <c r="H21" s="6">
         <v>0.65</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="6">
         <v>12</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="6">
         <v>220</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="6">
         <v>411</v>
       </c>
-      <c r="L21" s="1">
-        <v>0.29100000000000004</v>
+      <c r="L21" s="6">
+        <v>0.291</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>45657</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <v>480</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="6">
         <v>8900</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="6">
         <v>539</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="6">
         <v>3800</v>
       </c>
-      <c r="G22" s="1">
-        <v>2.3E-2</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="G22" s="6">
+        <v>0.023</v>
+      </c>
+      <c r="H22" s="6">
         <v>0.5</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="6">
         <v>8</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="6">
         <v>150</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="6">
         <v>341</v>
       </c>
-      <c r="L22" s="1">
-        <v>0.28999999999999998</v>
+      <c r="L22" s="6">
+        <v>0.29</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="2">
+      <c r="A23" s="7">
         <v>45657</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="6">
         <v>980</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="6">
         <v>16500</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="6">
         <v>594</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="6">
         <v>5900</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="6">
         <v>0.01</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="6">
         <v>0.78</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="6">
         <v>18</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="6">
         <v>380</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="6">
         <v>686</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="2">
+      <c r="A24" s="7">
         <v>45657</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="6">
         <v>920</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="6">
         <v>15800</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="6">
         <v>582</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="6">
         <v>5500</v>
       </c>
-      <c r="G24" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="G24" s="6">
+        <v>0.008</v>
+      </c>
+      <c r="H24" s="6">
         <v>0.82</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="6">
         <v>16</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="6">
         <v>360</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="6">
         <v>644</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="2">
+      <c r="A25" s="7">
         <v>45657</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="6">
         <v>430</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="6">
         <v>7400</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="6">
         <v>581</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="6">
         <v>3200</v>
       </c>
-      <c r="G25" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="G25" s="6">
+        <v>0.025</v>
+      </c>
+      <c r="H25" s="6">
         <v>0.45</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="6">
         <v>10</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="6">
         <v>170</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="6">
         <v>306</v>
       </c>
-      <c r="L25" s="1">
-        <v>0.28800000000000003</v>
+      <c r="L25" s="6">
+        <v>0.288</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="9.16346153846154" defaultRowHeight="20.4" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3365384615385" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.8365384615385" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.16346153846154" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3">
+        <v>45657</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>45657</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>45657</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>45657</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>45657</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>45657</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>